--- a/test-resources/data/TEST_FORGOTPASSWORD.xlsx
+++ b/test-resources/data/TEST_FORGOTPASSWORD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoct\Desktop\KiemThuNangCao\ASM\Poly.Asg\test-resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA2\GodEshop\test-resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B06480-78AF-4A2D-A828-7033AC55CE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D56D0-D4BC-4178-A531-1D87CA4B959E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D092AD4-B6F3-46E0-98CE-9167517A6CF3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -46,41 +46,44 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>nam1</t>
-  </si>
-  <si>
-    <t>halala1102@gmail.com</t>
-  </si>
-  <si>
     <t>SUCCESS</t>
   </si>
   <si>
-    <t>taikhoantest2</t>
-  </si>
-  <si>
-    <t>test123@gmail.com</t>
-  </si>
-  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>taikhoantest</t>
-  </si>
-  <si>
     <t>test1234@gmail.com</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a1@gmail.com</t>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>cust03</t>
+  </si>
+  <si>
+    <t>New password</t>
+  </si>
+  <si>
+    <t>Comfirm password</t>
+  </si>
+  <si>
+    <t>Matkhau@123</t>
+  </si>
+  <si>
+    <t>cust01</t>
+  </si>
+  <si>
+    <t>nghiattps14820@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Matkhau@124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +99,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,16 +135,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -436,139 +483,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42DFD7E-83BE-4F94-A720-F23386DBD07D}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="4" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1111111</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{45CE3855-3BFB-46B0-967E-C1C2D686BD42}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{D4386C7A-F4D4-4237-A360-4AD7818FB2C4}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{125836CB-0C18-47EC-8C10-EA9A044C71E2}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{1A4E3E3F-321C-4E18-A449-F29BF070A6A5}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{480109EF-72AF-4934-BD6C-52369741B889}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{E8F57A05-61C4-4CF9-9E7E-817311CC4837}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{125836CB-0C18-47EC-8C10-EA9A044C71E2}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{1A4E3E3F-321C-4E18-A449-F29BF070A6A5}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{F52E799B-229F-40AA-B4A1-F5D0C730B0EB}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{B94112D5-C994-4AE9-B810-813BC95EE674}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{CF90B712-5EDA-4476-9727-D5D71BDE1B7F}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{4F357C58-F3F8-4506-B6E4-CDA5EF927CEB}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{96FE17D7-0B17-48A3-A60A-56E28044BEAC}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{99E017EB-37A3-4933-8680-E5ADF83B776B}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{8196EC9A-1124-402D-9E16-4E9207C08FA0}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{EAF647B5-1F51-4AA4-B880-1F50CDF88C9B}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{BEA23A30-50C0-4555-B602-7DDD4B1B1D94}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{827412A7-FF35-4914-AEDC-AEEF20C5CEFB}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{994EF858-AC6F-4188-A618-90393C923D4F}"/>
+    <hyperlink ref="E5" r:id="rId15" xr:uid="{2043A9BA-A867-40E4-92F4-A8362DB21767}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
